--- a/test-data/data2.xlsx
+++ b/test-data/data2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
   <si>
     <t>ORDER</t>
   </si>
@@ -28,6 +28,9 @@
     <t>CDATE</t>
   </si>
   <si>
+    <t>CTIME</t>
+  </si>
+  <si>
     <t>WARD</t>
   </si>
   <si>
@@ -58,6 +61,15 @@
     <t>JANE</t>
   </si>
   <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>trach asp</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -67,6 +79,9 @@
     <t>&lt;=0.05</t>
   </si>
   <si>
+    <t>PSA mucoid</t>
+  </si>
+  <si>
     <t>&gt;=64</t>
   </si>
   <si>
@@ -85,16 +100,34 @@
     <t>BABY</t>
   </si>
   <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
     <t>&lt;=0.025</t>
+  </si>
+  <si>
+    <t>endotrach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -122,11 +155,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -385,27 +424,51 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44416.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -414,22 +477,43 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L3" s="1" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44416.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.0</v>
+      </c>
       <c r="M3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -437,22 +521,43 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44416.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1">
         <v>2.0</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -460,22 +565,43 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44416.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1">
         <v>2.0</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -483,136 +609,262 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44416.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1">
         <v>2.0</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44384.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.3104166666666667</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="L7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44384.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.3104166666666667</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1">
         <v>2.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="1">
         <v>64.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
         <v>3.0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>16</v>
+      <c r="E9" s="2">
+        <v>44479.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
         <v>3.0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="E10" s="2">
+        <v>44479.0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="1">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44482.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.5506944444444445</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1">
         <v>2.0</v>
       </c>
     </row>
